--- a/exports/Miners_2024-02-26.xlsx
+++ b/exports/Miners_2024-02-26.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>miner_label</t>
   </si>
@@ -41,27 +41,24 @@
     <t>customer_name</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV2 Hotroom </t>
+    <t>axa1</t>
+  </si>
+  <si>
+    <t>xaxa1</t>
+  </si>
+  <si>
+    <t>NV1 Left</t>
   </si>
   <si>
     <t>Tesla Watt</t>
   </si>
   <si>
-    <t>testtest</t>
+    <t>xaxa</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>NV1 Left</t>
-  </si>
-  <si>
-    <t>Compass Mining</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -71,13 +68,13 @@
     <t>tets</t>
   </si>
   <si>
+    <t>txaxx</t>
+  </si>
+  <si>
+    <t>txaxxx</t>
+  </si>
+  <si>
     <t>txa</t>
-  </si>
-  <si>
-    <t>txaxx</t>
-  </si>
-  <si>
-    <t>txaxxx</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:H1"/>
@@ -501,30 +498,30 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -542,270 +539,270 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -825,445 +822,221 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
